--- a/biology/Botanique/Saxifraga_aquatica/Saxifraga_aquatica.xlsx
+++ b/biology/Botanique/Saxifraga_aquatica/Saxifraga_aquatica.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Saxifraga aquatica, la Saxifrage aquatique Écouter, est une espèce de plante herbacée vivace du genre Saxifraga et de la famille des Saxifragaceae.
 </t>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette grande saxifrage (50 à 60 cm de haut) aux fleurs blanches[1], est une endémique des Pyrénées, où on la rencontre dans les endroits humides, en particulier le long des ruisseaux ou des zones de suintement. Elle fleurit en juillet et août.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette grande saxifrage (50 à 60 cm de haut) aux fleurs blanches, est une endémique des Pyrénées, où on la rencontre dans les endroits humides, en particulier le long des ruisseaux ou des zones de suintement. Elle fleurit en juillet et août.
 </t>
         </is>
       </c>
